--- a/Assets/Data/DataTable/01_Character_Table.xlsx
+++ b/Assets/Data/DataTable/01_Character_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdw33\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01CF635F-EB00-43B1-B266-82F4A174C5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBF3A32-578A-4829-BA3D-C1F5590C1B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9C87D5F5-8BEA-4097-972C-AE5594D6987B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{9C87D5F5-8BEA-4097-972C-AE5594D6987B}"/>
   </bookViews>
   <sheets>
     <sheet name="!Logic" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="76">
   <si>
     <t>Character_ID</t>
   </si>
@@ -90,9 +90,6 @@
   <si>
     <t>Weak_Type</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enum</t>
   </si>
   <si>
     <t>Enum</t>
@@ -316,19 +313,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>enum:Weak_Type:Radiation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>enum:Resist_Type:Gravity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>double</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>속성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum:WEAK_TYPE:RADIATION</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -336,7 +333,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,14 +362,6 @@
       <color theme="0"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -471,7 +460,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -494,13 +483,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -534,28 +560,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -570,13 +581,43 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -677,8 +718,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15265976" y="4396344"/>
-          <a:ext cx="4024913" cy="6915462"/>
+          <a:off x="15245602" y="4170189"/>
+          <a:ext cx="3997407" cy="7028540"/>
           <a:chOff x="1529709" y="-180912"/>
           <a:chExt cx="3987802" cy="6854849"/>
         </a:xfrm>
@@ -4078,8 +4119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77C094FC-05DB-4CD8-97F7-07905908E4F3}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:E12"/>
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4094,255 +4135,274 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="D1" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="E1" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
+      <c r="H1" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="22"/>
     </row>
     <row r="2" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I2" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>18</v>
+      <c r="I2" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>48</v>
+        <v>36</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>19</v>
+        <v>61</v>
+      </c>
+      <c r="H3" s="29">
+        <v>1</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>18</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>49</v>
+        <v>37</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>20</v>
+        <v>62</v>
+      </c>
+      <c r="H4" s="29">
+        <v>2</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>19</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>49</v>
+        <v>38</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>21</v>
+        <v>63</v>
+      </c>
+      <c r="H5" s="29">
+        <v>3</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>20</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>22</v>
+        <v>64</v>
+      </c>
+      <c r="H6" s="29">
+        <v>4</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>21</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>49</v>
+        <v>40</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>30</v>
+        <v>65</v>
+      </c>
+      <c r="H7" s="29">
+        <v>5</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>29</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>17</v>
+        <v>45</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>17</v>
+        <v>46</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:K1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4354,8 +4414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B84F12-225E-4602-82FB-B79E6E932B4F}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4371,73 +4431,73 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="23" t="s">
+      <c r="A2" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" s="24" t="s">
+      <c r="K2" s="19" t="s">
         <v>46</v>
-      </c>
-      <c r="K2" s="24" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="E3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="K3" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -4480,7 +4540,7 @@
         <v>10010001</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2">
         <v>100</v>
@@ -4501,11 +4561,11 @@
         <v>20010002</v>
       </c>
       <c r="I5" s="4"/>
-      <c r="J5" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>20</v>
+      <c r="J5" s="12">
+        <v>3</v>
+      </c>
+      <c r="K5" s="11">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -4513,7 +4573,7 @@
         <v>10010002</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2">
         <v>100</v>
@@ -4534,11 +4594,11 @@
         <v>20020002</v>
       </c>
       <c r="I6" s="4"/>
-      <c r="J6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>20</v>
+      <c r="J6" s="12">
+        <v>3</v>
+      </c>
+      <c r="K6" s="11">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -4546,7 +4606,7 @@
         <v>10010003</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2">
         <v>100</v>
@@ -4567,11 +4627,11 @@
         <v>20030002</v>
       </c>
       <c r="I7" s="4"/>
-      <c r="J7" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>20</v>
+      <c r="J7" s="12">
+        <v>3</v>
+      </c>
+      <c r="K7" s="11">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -4579,7 +4639,7 @@
         <v>10010004</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="2">
         <v>100</v>
@@ -4600,11 +4660,11 @@
         <v>20040002</v>
       </c>
       <c r="I8" s="4"/>
-      <c r="J8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>20</v>
+      <c r="J8" s="12">
+        <v>3</v>
+      </c>
+      <c r="K8" s="11">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -4612,7 +4672,7 @@
         <v>10010005</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2">
         <v>100</v>
@@ -4633,11 +4693,11 @@
         <v>20050002</v>
       </c>
       <c r="I9" s="4"/>
-      <c r="J9" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>20</v>
+      <c r="J9" s="12">
+        <v>3</v>
+      </c>
+      <c r="K9" s="11">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">

--- a/Assets/Data/DataTable/01_Character_Table.xlsx
+++ b/Assets/Data/DataTable/01_Character_Table.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28928"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdw33\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBF3A32-578A-4829-BA3D-C1F5590C1B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E8F449D-1707-479C-B18F-B3F772CFB384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{9C87D5F5-8BEA-4097-972C-AE5594D6987B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{9C87D5F5-8BEA-4097-972C-AE5594D6987B}"/>
   </bookViews>
   <sheets>
     <sheet name="!Logic" sheetId="3" r:id="rId1"/>
     <sheet name="Character_Data_Table" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,209 +37,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="77">
+  <si>
+    <t>칼럼명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>역할</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블 관계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type [Enum테이블]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
   <si>
     <t>Character_ID</t>
   </si>
   <si>
+    <t>캐릭터 ID</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>캐릭터를 고유하게 식별하는 기본키</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>속성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>속성 이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+  </si>
+  <si>
     <t>Char_Name</t>
   </si>
   <si>
-    <t>Char_Default_HP</t>
-  </si>
-  <si>
-    <t>Char_Default_Attack</t>
-  </si>
-  <si>
-    <t>Char_Default_AP</t>
-  </si>
-  <si>
-    <t>Skill1_ID</t>
-  </si>
-  <si>
-    <t>Skill2_ID</t>
-  </si>
-  <si>
-    <t>Skill3_ID</t>
-  </si>
-  <si>
-    <t>Character_Data_Table</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Char_Default_Speed</t>
-  </si>
-  <si>
-    <t>Char_Default_Speed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-  </si>
-  <si>
-    <t>Int</t>
-  </si>
-  <si>
-    <t>Skill3_ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resist_Type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weak_Type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enum</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명</t>
+    <t>캐릭터 이름</t>
+  </si>
+  <si>
+    <t>Char</t>
+  </si>
+  <si>
+    <t>플레이어와 시스템이 캐릭터를 식별하는 대표 이름.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Fire</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Gravity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Radiation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Holy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>속성 이름</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type [Enum테이블]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>화염</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>중력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>방사능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>암흑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Void</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회복 방해, 중독성 도트 피해, 스태미나/체력 회복량 감소 등 장기전에 특화된 교란 속성입니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회복, 정화, 보호막 등 아군 지원에 강하며, 어둠/언데드 계열 적에게 추가 피해를 입힙니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>칼럼명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자료형</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 ID</t>
-  </si>
-  <si>
-    <t>캐릭터 이름</t>
-  </si>
-  <si>
-    <t>기본 체력</t>
-  </si>
-  <si>
-    <t>기본 공격력</t>
-  </si>
-  <si>
-    <t>기본 AP 보유량</t>
-  </si>
-  <si>
-    <t>기본 스피드값</t>
-  </si>
-  <si>
-    <t>스킬1_ID</t>
-  </si>
-  <si>
-    <t>스킬2_ID</t>
-  </si>
-  <si>
-    <t>스킬3_ID</t>
-  </si>
-  <si>
-    <t>캐릭터 이름</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>약점 속성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>저항 속성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Char</t>
-  </si>
-  <si>
-    <t>Float</t>
-  </si>
-  <si>
-    <t>Character_Skill_Table의 Key</t>
-  </si>
-  <si>
-    <t>역할</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블 관계</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Char_Name_001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Char_Name_002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Char_Name_003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Char_Name_004</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Char_Name_005</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -248,22 +117,13 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>적의 이동 속도나 행동력을 제한하는 제어형 속성.
- 억제, 구속, 스피드 감소 등과 연계되는 효과를 가짐.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>적의 방어력을 무시하거나, 확률적 상태이상(혼란, 침묵 등)을 유발하는 공격 중심의 속성입니다. 
-SF나 초월적 존재의 힘을 상징합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터를 고유하게 식별하는 기본키</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어와 시스템이 캐릭터를 식별하는 대표 이름.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>Char_Default_HP</t>
+  </si>
+  <si>
+    <t>기본 체력</t>
+  </si>
+  <si>
+    <t>Float</t>
   </si>
   <si>
     <t xml:space="preserve">캐릭터의 생명력. 0이 되면 행동 불가 상태가 됨.
@@ -273,12 +133,70 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Gravity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>중력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>적의 이동 속도나 행동력을 제한하는 제어형 속성.
+ 억제, 구속, 스피드 감소 등과 연계되는 효과를 가짐.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Char_Default_Attack</t>
+  </si>
+  <si>
+    <t>기본 공격력</t>
+  </si>
+  <si>
     <t>캐릭터의 공격력.일반 공격의 대미지를 결정.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Radiation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방사능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복 방해, 중독성 도트 피해, 스태미나/체력 회복량 감소 등 장기전에 특화된 교란 속성입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Char_Default_AP</t>
+  </si>
+  <si>
+    <t>기본 AP 보유량</t>
+  </si>
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
     <t>스킬 사용에 필요한 자원, 전투 중 회복 또는 소비됨.</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Holy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복, 정화, 보호막 등 아군 지원에 강하며, 어둠/언데드 계열 적에게 추가 피해를 입힙니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Char_Default_Speed</t>
+  </si>
+  <si>
+    <t>기본 스피드값</t>
   </si>
   <si>
     <t>캐릭터의 턴 결정에 기준이 되는 스테이터스.
@@ -286,29 +204,90 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Void</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>암흑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>적의 방어력을 무시하거나, 확률적 상태이상(혼란, 침묵 등)을 유발하는 공격 중심의 속성입니다. 
+SF나 초월적 존재의 힘을 상징합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill1_ID</t>
+  </si>
+  <si>
+    <t>스킬1_ID</t>
+  </si>
+  <si>
+    <t>Character_Skill_Table의 Key</t>
+  </si>
+  <si>
     <t>해당 캐릭터가 전투에서 사용하는 첫 번째 스킬 ID. 
 Skill 테이블과 연동되어 스킬 상세정보를 불러옴.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Skill2_ID</t>
+  </si>
+  <si>
+    <t>스킬2_ID</t>
+  </si>
+  <si>
     <t>해당 캐릭터가 전투에서 사용하는 두 번째 스킬 ID. 
 Skill 테이블과 연동되어 스킬 상세정보를 불러옴.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Skill3_ID</t>
+  </si>
+  <si>
+    <t>스킬3_ID</t>
+  </si>
+  <si>
     <t>해당 캐릭터가 전투에서 사용하는 세번째 스킬 ID. 
 Skill 테이블과 연동되어 스킬 상세정보를 불러옴.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Weak_Type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>약점 속성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enum:ELEMENT_TYPE</t>
+  </si>
+  <si>
     <t>해당 캐릭터의 약점이 되는 속성을 식별하는 역할.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Resist_Type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저항 속성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>해당 캐릭터가 피해를 받을 때, 저항되는 속성을 식별하는 역할.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Character_Data_Table</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>string</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -321,11 +300,34 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>속성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>enum:WEAK_TYPE:RADIATION</t>
+    <t>enum:ELEMENT_TYPE:NONE</t>
+  </si>
+  <si>
+    <t>Char_Default_Speed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill3_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Char_Name_001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Char_Name_002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Char_Name_003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Char_Name_004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Char_Name_005</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -333,7 +335,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -526,7 +528,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -590,12 +592,6 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -619,6 +615,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -718,8 +726,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15245602" y="4170189"/>
-          <a:ext cx="3997407" cy="7028540"/>
+          <a:off x="15640049" y="4174671"/>
+          <a:ext cx="4004131" cy="6959624"/>
           <a:chOff x="1529709" y="-180912"/>
           <a:chExt cx="3987802" cy="6854849"/>
         </a:xfrm>
@@ -3686,7 +3694,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2578555</xdr:colOff>
+      <xdr:colOff>2188030</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>203615</xdr:rowOff>
     </xdr:to>
@@ -4120,284 +4128,284 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
     <col min="4" max="4" width="27.875" customWidth="1"/>
     <col min="5" max="5" width="94.625" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
     <col min="11" max="11" width="111.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="29.25" customHeight="1">
       <c r="A1" s="20" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="22"/>
+        <v>4</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="30"/>
     </row>
-    <row r="2" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="28.5" customHeight="1">
       <c r="A2" s="14" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="33">
+      <c r="A3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>16</v>
-      </c>
-      <c r="I2" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>47</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" s="29">
+        <v>17</v>
+      </c>
+      <c r="H3" s="27">
         <v>1</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="22" t="s">
         <v>18</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="66">
       <c r="A4" s="14" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H4" s="29">
+        <v>24</v>
+      </c>
+      <c r="H4" s="27">
         <v>2</v>
       </c>
-      <c r="I4" s="25" t="s">
-        <v>19</v>
+      <c r="I4" s="23" t="s">
+        <v>25</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="35.25" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" s="29">
+        <v>30</v>
+      </c>
+      <c r="H5" s="27">
         <v>3</v>
       </c>
-      <c r="I5" s="26" t="s">
-        <v>20</v>
+      <c r="I5" s="24" t="s">
+        <v>31</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="39" customHeight="1">
       <c r="A6" s="14" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" s="29">
+        <v>37</v>
+      </c>
+      <c r="H6" s="27">
         <v>4</v>
       </c>
-      <c r="I6" s="27" t="s">
-        <v>21</v>
+      <c r="I6" s="25" t="s">
+        <v>38</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="57" customHeight="1">
       <c r="A7" s="16" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" s="29">
+        <v>43</v>
+      </c>
+      <c r="H7" s="27">
         <v>5</v>
       </c>
-      <c r="I7" s="28" t="s">
-        <v>29</v>
+      <c r="I7" s="26" t="s">
+        <v>44</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="51" customHeight="1">
       <c r="A8" s="14" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="49.5" customHeight="1">
       <c r="A9" s="14" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="57.75" customHeight="1">
       <c r="A10" s="14" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="40.5" customHeight="1">
       <c r="A11" s="16" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>16</v>
+        <v>58</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>59</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="40.5" customHeight="1">
       <c r="A12" s="16" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -4414,133 +4422,134 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B84F12-225E-4602-82FB-B79E6E932B4F}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="8" width="20.375" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
-    <col min="10" max="11" width="26" customWidth="1"/>
+    <col min="10" max="10" width="31" customWidth="1"/>
+    <col min="11" max="11" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="24.75" customHeight="1">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="1" customFormat="1">
       <c r="A2" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>39</v>
-      </c>
       <c r="F2" s="18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>75</v>
+      <c r="J4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" s="7">
         <v>10010001</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2">
         <v>100</v>
@@ -4568,12 +4577,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" s="7">
         <v>10010002</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2">
         <v>100</v>
@@ -4601,12 +4610,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" s="7">
         <v>10010003</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="C7" s="2">
         <v>100</v>
@@ -4634,12 +4643,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8" s="7">
         <v>10010004</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C8" s="2">
         <v>100</v>
@@ -4667,12 +4676,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9" s="7">
         <v>10010005</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C9" s="2">
         <v>100</v>
@@ -4700,7 +4709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="A10" s="7"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -4713,7 +4722,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="A11" s="7"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>

--- a/Assets/Data/DataTable/01_Character_Table.xlsx
+++ b/Assets/Data/DataTable/01_Character_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdw33\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E8F449D-1707-479C-B18F-B3F772CFB384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BA4FF0-92C5-46DB-9B42-61EF9F393142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{9C87D5F5-8BEA-4097-972C-AE5594D6987B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{9C87D5F5-8BEA-4097-972C-AE5594D6987B}"/>
   </bookViews>
   <sheets>
     <sheet name="!Logic" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="84">
   <si>
     <t>칼럼명</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -328,6 +328,34 @@
   </si>
   <si>
     <t>Char_Name_005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image_Path</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>player_Rifleman</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>player_Sniper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>player_Commissar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>player_Firebat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>player_Antitank</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에셋 경로</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -335,7 +363,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -462,7 +490,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -522,13 +550,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -536,9 +590,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -561,9 +612,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -616,17 +664,26 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -726,8 +783,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15640049" y="4174671"/>
-          <a:ext cx="4004131" cy="6959624"/>
+          <a:off x="15637808" y="4170189"/>
+          <a:ext cx="3997407" cy="7028540"/>
           <a:chOff x="1529709" y="-180912"/>
           <a:chExt cx="3987802" cy="6854849"/>
         </a:xfrm>
@@ -4131,7 +4188,7 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="16.75" customWidth="1"/>
@@ -4142,20 +4199,20 @@
     <col min="11" max="11" width="111.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="29" t="s">
@@ -4165,227 +4222,227 @@
       <c r="J1" s="29"/>
       <c r="K1" s="30"/>
     </row>
-    <row r="2" spans="1:11" ht="28.5" customHeight="1">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="33">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="27">
+      <c r="H3" s="25">
         <v>1</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="20" t="s">
         <v>18</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="66">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="25">
         <v>2</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="21" t="s">
         <v>25</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="35.25" customHeight="1">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="13" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="25">
         <v>3</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="22" t="s">
         <v>31</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="39" customHeight="1">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="25">
         <v>4</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="23" t="s">
         <v>38</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="57" customHeight="1">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="27">
+      <c r="H7" s="25">
         <v>5</v>
       </c>
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="24" t="s">
         <v>44</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="51" customHeight="1">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
         <v>47</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="49.5" customHeight="1">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
         <v>51</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="57.75" customHeight="1">
-      <c r="A10" s="14" t="s">
+    <row r="10" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
         <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="40.5" customHeight="1">
-      <c r="A11" s="16" t="s">
+    <row r="11" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
         <v>57</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="27" t="s">
         <v>59</v>
       </c>
       <c r="D11" s="2"/>
@@ -4393,14 +4450,14 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="40.5" customHeight="1">
-      <c r="A12" s="16" t="s">
+    <row r="12" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
         <v>61</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="13" t="s">
         <v>59</v>
       </c>
       <c r="D12" s="2"/>
@@ -4420,132 +4477,142 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B84F12-225E-4602-82FB-B79E6E932B4F}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="8" width="20.375" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
     <col min="10" max="10" width="31" customWidth="1"/>
     <col min="11" max="11" width="32" customWidth="1"/>
+    <col min="12" max="12" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="24.75" customHeight="1">
+    <row r="1" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="17" t="s">
         <v>62</v>
       </c>
+      <c r="L2" s="17" t="s">
+        <v>83</v>
+      </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="J3" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="8" t="s">
         <v>69</v>
       </c>
+      <c r="L3" s="7" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="5" t="s">
         <v>61</v>
       </c>
+      <c r="L4" s="33" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="7">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
         <v>10010001</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -4563,22 +4630,25 @@
       <c r="F5" s="2">
         <v>10</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>20010001</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>20010002</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="12">
+      <c r="I5" s="3"/>
+      <c r="J5" s="10">
         <v>3</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="31">
         <v>2</v>
       </c>
+      <c r="L5" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="7">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
         <v>10010002</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -4596,22 +4666,25 @@
       <c r="F6" s="2">
         <v>10</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>20020001</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>20020002</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="12">
+      <c r="I6" s="3"/>
+      <c r="J6" s="10">
         <v>3</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="31">
         <v>2</v>
       </c>
+      <c r="L6" s="2" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="7">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
         <v>10010003</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -4629,22 +4702,25 @@
       <c r="F7" s="2">
         <v>10</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>20030001</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>20030002</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="12">
+      <c r="I7" s="3"/>
+      <c r="J7" s="10">
         <v>3</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="31">
         <v>2</v>
       </c>
+      <c r="L7" s="2" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="7">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
         <v>10010004</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -4662,22 +4738,25 @@
       <c r="F8" s="2">
         <v>10</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>20040001</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>20040002</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="12">
+      <c r="I8" s="3"/>
+      <c r="J8" s="10">
         <v>3</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="31">
         <v>2</v>
       </c>
+      <c r="L8" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="7">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
         <v>10010005</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -4695,22 +4774,25 @@
       <c r="F9" s="2">
         <v>10</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>20050001</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>20050002</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="12">
+      <c r="I9" s="3"/>
+      <c r="J9" s="10">
         <v>3</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="31">
         <v>2</v>
       </c>
+      <c r="L9" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="7"/>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -4720,10 +4802,11 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="7"/>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -4733,7 +4816,8 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Assets/Data/DataTable/01_Character_Table.xlsx
+++ b/Assets/Data/DataTable/01_Character_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdw33\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E8F449D-1707-479C-B18F-B3F772CFB384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BBB419-E1D2-4353-BCBB-6DD785FE6639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{9C87D5F5-8BEA-4097-972C-AE5594D6987B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{9C87D5F5-8BEA-4097-972C-AE5594D6987B}"/>
   </bookViews>
   <sheets>
     <sheet name="!Logic" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="84">
   <si>
     <t>칼럼명</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -328,6 +328,34 @@
   </si>
   <si>
     <t>Char_Name_005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>player_Rifleman</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>player_Sniper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>player_Commissar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>player_Firebat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>player_Antitank</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에셋 파일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset_File</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -335,7 +363,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -462,7 +490,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -522,13 +550,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -536,9 +590,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -561,9 +612,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -616,17 +664,26 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -726,8 +783,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15640049" y="4174671"/>
-          <a:ext cx="4004131" cy="6959624"/>
+          <a:off x="15637808" y="4170189"/>
+          <a:ext cx="3997407" cy="7028540"/>
           <a:chOff x="1529709" y="-180912"/>
           <a:chExt cx="3987802" cy="6854849"/>
         </a:xfrm>
@@ -4131,7 +4188,7 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="16.75" customWidth="1"/>
@@ -4142,250 +4199,250 @@
     <col min="11" max="11" width="111.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="30"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="33"/>
     </row>
-    <row r="2" spans="1:11" ht="28.5" customHeight="1">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="33">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="27">
+      <c r="H3" s="25">
         <v>1</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="20" t="s">
         <v>18</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="66">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="25">
         <v>2</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="21" t="s">
         <v>25</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="35.25" customHeight="1">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="13" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="25">
         <v>3</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="22" t="s">
         <v>31</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="39" customHeight="1">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="25">
         <v>4</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="23" t="s">
         <v>38</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="57" customHeight="1">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="27">
+      <c r="H7" s="25">
         <v>5</v>
       </c>
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="24" t="s">
         <v>44</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="51" customHeight="1">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
         <v>47</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="49.5" customHeight="1">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
         <v>51</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="57.75" customHeight="1">
-      <c r="A10" s="14" t="s">
+    <row r="10" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
         <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="40.5" customHeight="1">
-      <c r="A11" s="16" t="s">
+    <row r="11" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
         <v>57</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="27" t="s">
         <v>59</v>
       </c>
       <c r="D11" s="2"/>
@@ -4393,14 +4450,14 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="40.5" customHeight="1">
-      <c r="A12" s="16" t="s">
+    <row r="12" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
         <v>61</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="13" t="s">
         <v>59</v>
       </c>
       <c r="D12" s="2"/>
@@ -4420,132 +4477,142 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B84F12-225E-4602-82FB-B79E6E932B4F}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="8" width="20.375" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
     <col min="10" max="10" width="31" customWidth="1"/>
     <col min="11" max="11" width="32" customWidth="1"/>
+    <col min="12" max="12" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="24.75" customHeight="1">
+    <row r="1" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="17" t="s">
         <v>62</v>
       </c>
+      <c r="L2" s="17" t="s">
+        <v>82</v>
+      </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="J3" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="8" t="s">
         <v>69</v>
       </c>
+      <c r="L3" s="7" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="5" t="s">
         <v>61</v>
       </c>
+      <c r="L4" s="31" t="s">
+        <v>83</v>
+      </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="7">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
         <v>10010001</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -4563,22 +4630,25 @@
       <c r="F5" s="2">
         <v>10</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>20010001</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>20010002</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="12">
+      <c r="I5" s="3"/>
+      <c r="J5" s="10">
         <v>3</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="29">
         <v>2</v>
       </c>
+      <c r="L5" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="7">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
         <v>10010002</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -4596,22 +4666,25 @@
       <c r="F6" s="2">
         <v>10</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>20020001</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>20020002</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="12">
+      <c r="I6" s="3"/>
+      <c r="J6" s="10">
         <v>3</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="29">
         <v>2</v>
       </c>
+      <c r="L6" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="7">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
         <v>10010003</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -4629,22 +4702,25 @@
       <c r="F7" s="2">
         <v>10</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>20030001</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>20030002</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="12">
+      <c r="I7" s="3"/>
+      <c r="J7" s="10">
         <v>3</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="29">
         <v>2</v>
       </c>
+      <c r="L7" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="7">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
         <v>10010004</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -4662,22 +4738,25 @@
       <c r="F8" s="2">
         <v>10</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>20040001</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>20040002</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="12">
+      <c r="I8" s="3"/>
+      <c r="J8" s="10">
         <v>3</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="29">
         <v>2</v>
       </c>
+      <c r="L8" s="2" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="7">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
         <v>10010005</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -4695,22 +4774,25 @@
       <c r="F9" s="2">
         <v>10</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>20050001</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>20050002</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="12">
+      <c r="I9" s="3"/>
+      <c r="J9" s="10">
         <v>3</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="29">
         <v>2</v>
       </c>
+      <c r="L9" s="2" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="7"/>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -4720,10 +4802,11 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="7"/>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -4733,7 +4816,8 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Assets/Data/DataTable/01_Character_Table.xlsx
+++ b/Assets/Data/DataTable/01_Character_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdw33\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwon-yeodi/Documents/GitHub/Astrocat-2DSFProject/Assets/Data/DataTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BBB419-E1D2-4353-BCBB-6DD785FE6639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DBBEE01-D457-E741-A07D-5034200B6849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{9C87D5F5-8BEA-4097-972C-AE5594D6987B}"/>
+    <workbookView xWindow="1220" yWindow="880" windowWidth="26360" windowHeight="20180" firstSheet="1" activeTab="1" xr2:uid="{9C87D5F5-8BEA-4097-972C-AE5594D6987B}"/>
   </bookViews>
   <sheets>
     <sheet name="!Logic" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="86">
   <si>
     <t>칼럼명</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -356,6 +356,14 @@
   </si>
   <si>
     <t>Asset_File</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 방어력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Char_Default_Defense</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -363,7 +371,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -783,8 +791,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15637808" y="4170189"/>
-          <a:ext cx="3997407" cy="7028540"/>
+          <a:off x="15607925" y="4282247"/>
+          <a:ext cx="3978731" cy="6916482"/>
           <a:chOff x="1529709" y="-180912"/>
           <a:chExt cx="3987802" cy="6854849"/>
         </a:xfrm>
@@ -4188,18 +4196,18 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="3" max="3" width="19.25" customWidth="1"/>
-    <col min="4" max="4" width="27.875" customWidth="1"/>
-    <col min="5" max="5" width="94.625" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="4" max="4" width="27.83203125" customWidth="1"/>
+    <col min="5" max="5" width="94.6640625" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="11" max="11" width="111.125" customWidth="1"/>
+    <col min="11" max="11" width="111.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="29.25" customHeight="1">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -4222,7 +4230,7 @@
       <c r="J1" s="32"/>
       <c r="K1" s="33"/>
     </row>
-    <row r="2" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="28.5" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>6</v>
       </c>
@@ -4249,7 +4257,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="36">
       <c r="A3" s="12" t="s">
         <v>14</v>
       </c>
@@ -4276,7 +4284,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="72">
       <c r="A4" s="12" t="s">
         <v>21</v>
       </c>
@@ -4303,7 +4311,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="35.25" customHeight="1">
       <c r="A5" s="12" t="s">
         <v>28</v>
       </c>
@@ -4330,7 +4338,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="39" customHeight="1">
       <c r="A6" s="12" t="s">
         <v>34</v>
       </c>
@@ -4357,7 +4365,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="57" customHeight="1">
       <c r="A7" s="14" t="s">
         <v>41</v>
       </c>
@@ -4384,7 +4392,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="51" customHeight="1">
       <c r="A8" s="12" t="s">
         <v>47</v>
       </c>
@@ -4401,7 +4409,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="49.5" customHeight="1">
       <c r="A9" s="12" t="s">
         <v>51</v>
       </c>
@@ -4418,7 +4426,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="57.75" customHeight="1">
       <c r="A10" s="12" t="s">
         <v>54</v>
       </c>
@@ -4435,7 +4443,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="40.5" customHeight="1">
       <c r="A11" s="14" t="s">
         <v>57</v>
       </c>
@@ -4450,7 +4458,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="40.5" customHeight="1">
       <c r="A12" s="14" t="s">
         <v>61</v>
       </c>
@@ -4477,27 +4485,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B84F12-225E-4602-82FB-B79E6E932B4F}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="8" width="20.375" customWidth="1"/>
+    <col min="1" max="8" width="20.33203125" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
     <col min="10" max="10" width="31" customWidth="1"/>
     <col min="11" max="11" width="32" customWidth="1"/>
     <col min="12" max="12" width="27" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="24.75" customHeight="1">
       <c r="A1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="18">
       <c r="A2" s="15" t="s">
         <v>7</v>
       </c>
@@ -4511,31 +4520,34 @@
         <v>29</v>
       </c>
       <c r="E2" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="G2" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="H2" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="I2" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="J2" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="K2" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="L2" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="M2" s="17" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="18">
       <c r="A3" s="7" t="s">
         <v>66</v>
       </c>
@@ -4549,13 +4561,13 @@
         <v>67</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>66</v>
@@ -4563,17 +4575,20 @@
       <c r="I3" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="M3" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="18">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -4587,31 +4602,34 @@
         <v>28</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="L4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="L4" s="31" t="s">
+      <c r="M4" s="31" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="A5" s="6">
         <v>10010001</v>
       </c>
@@ -4625,29 +4643,32 @@
         <v>40</v>
       </c>
       <c r="E5" s="2">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2">
         <v>3</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>10</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="3">
         <v>20010001</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="3">
         <v>20010002</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="10">
+      <c r="J5" s="3"/>
+      <c r="K5" s="10">
         <v>3</v>
       </c>
-      <c r="K5" s="29">
+      <c r="L5" s="29">
         <v>2</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="A6" s="6">
         <v>10010002</v>
       </c>
@@ -4661,29 +4682,32 @@
         <v>40</v>
       </c>
       <c r="E6" s="2">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2">
         <v>3</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>10</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
         <v>20020001</v>
       </c>
-      <c r="H6" s="3">
+      <c r="I6" s="3">
         <v>20020002</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="10">
+      <c r="J6" s="3"/>
+      <c r="K6" s="10">
         <v>3</v>
       </c>
-      <c r="K6" s="29">
+      <c r="L6" s="29">
         <v>2</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="A7" s="6">
         <v>10010003</v>
       </c>
@@ -4697,29 +4721,32 @@
         <v>40</v>
       </c>
       <c r="E7" s="2">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2">
         <v>3</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>10</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="3">
         <v>20030001</v>
       </c>
-      <c r="H7" s="3">
+      <c r="I7" s="3">
         <v>20030002</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="10">
+      <c r="J7" s="3"/>
+      <c r="K7" s="10">
         <v>3</v>
       </c>
-      <c r="K7" s="29">
+      <c r="L7" s="29">
         <v>2</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13">
       <c r="A8" s="6">
         <v>10010004</v>
       </c>
@@ -4733,29 +4760,32 @@
         <v>40</v>
       </c>
       <c r="E8" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2">
         <v>3</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="2">
         <v>10</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>20040001</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>20040002</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="10">
+      <c r="J8" s="3"/>
+      <c r="K8" s="10">
         <v>3</v>
       </c>
-      <c r="K8" s="29">
+      <c r="L8" s="29">
         <v>2</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13">
       <c r="A9" s="6">
         <v>10010005</v>
       </c>
@@ -4769,29 +4799,32 @@
         <v>40</v>
       </c>
       <c r="E9" s="2">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2">
         <v>3</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="2">
         <v>10</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>20050001</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>20050002</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="10">
+      <c r="J9" s="3"/>
+      <c r="K9" s="10">
         <v>3</v>
       </c>
-      <c r="K9" s="29">
+      <c r="L9" s="29">
         <v>2</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13">
       <c r="A10" s="6"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -4802,10 +4835,11 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13">
       <c r="A11" s="6"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -4816,8 +4850,9 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
